--- a/LabDemo/Lab2_IntroductionToJUnit/Lab2_TestCases.xlsx
+++ b/LabDemo/Lab2_IntroductionToJUnit/Lab2_TestCases.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADmin\OneDrive\Documents\GitHub\SQA2021\LabDemo\Lab2_IntroductionToJUnit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\SQA2021\LabDemo\Lab2_IntroductionToJUnit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>Test Case Design and Test Results</t>
   </si>
@@ -115,17 +115,65 @@
   </si>
   <si>
     <t>Check My Grade</t>
+  </si>
+  <si>
+    <t>Test Roman Number</t>
+  </si>
+  <si>
+    <t>SQA_LAB_2.1</t>
+  </si>
+  <si>
+    <t>นายกิตติคุณ จันทร์ดา</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>VI</t>
+  </si>
+  <si>
+    <t>XV</t>
+  </si>
+  <si>
+    <t>XI</t>
+  </si>
+  <si>
+    <t>DLV</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -302,9 +350,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -325,8 +394,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -337,57 +415,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -403,7 +451,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -668,20 +716,20 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="4" max="4" width="43.109375" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="43.125" customWidth="1"/>
+    <col min="5" max="5" width="29.875" customWidth="1"/>
+    <col min="6" max="6" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" ht="20.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -689,17 +737,17 @@
       <c r="E1" s="1"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:6" ht="20.25">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:6" ht="20.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -707,41 +755,47 @@
       <c r="E3" s="1"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:6" ht="20.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
+      <c r="B4" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="22"/>
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:6" ht="20.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:6" ht="20.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="11"/>
     </row>
-    <row r="8" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:6" ht="27.6" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -758,49 +812,107 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:6" ht="20.25">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7">
+        <v>4</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.25">
+      <c r="A10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="7">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.25">
+      <c r="A11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="7">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7">
+        <v>15</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20.25">
+      <c r="A12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="7">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7">
+        <v>11</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20.25">
+      <c r="A13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="7">
+        <v>555</v>
+      </c>
+      <c r="D13" s="7">
+        <v>555</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20.25">
+      <c r="A14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="7">
+        <v>49</v>
+      </c>
+      <c r="D14" s="7">
+        <v>49</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -810,6 +922,7 @@
     <mergeCell ref="B6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -818,22 +931,22 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E6"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="20.25" customWidth="1"/>
+    <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" ht="20.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -843,19 +956,19 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:8" ht="20.25">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="1:8" ht="20.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -865,69 +978,69 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" ht="20.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="H4" s="35"/>
+    </row>
+    <row r="5" spans="1:8" ht="20.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="28"/>
-    </row>
-    <row r="6" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A7" s="29" t="s">
+      <c r="H6" s="35"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.25">
+      <c r="A7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
+    </row>
+    <row r="8" spans="1:8" ht="27.6" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -937,49 +1050,49 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:8" ht="20.25">
+      <c r="A9" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="31" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="39" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="33" t="s">
+    <row r="10" spans="1:8" ht="20.25">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="E10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
-    </row>
-    <row r="11" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A11" s="38" t="s">
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11" spans="1:8" ht="20.25">
+      <c r="A11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="8">
@@ -994,11 +1107,15 @@
       <c r="F11" s="8">
         <v>50</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A12" s="40"/>
+      <c r="G11" s="7">
+        <v>50</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.25">
+      <c r="A12" s="30"/>
       <c r="B12" s="8" t="s">
         <v>22</v>
       </c>
@@ -1014,11 +1131,15 @@
       <c r="F12" s="8">
         <v>100</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A13" s="40"/>
+      <c r="G12" s="7">
+        <v>100</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20.25">
+      <c r="A13" s="30"/>
       <c r="B13" s="8" t="s">
         <v>23</v>
       </c>
@@ -1034,11 +1155,15 @@
       <c r="F13" s="8">
         <v>0</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A14" s="40"/>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20.25">
+      <c r="A14" s="30"/>
       <c r="B14" s="8" t="s">
         <v>24</v>
       </c>
@@ -1054,11 +1179,15 @@
       <c r="F14" s="8">
         <v>29</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A15" s="40"/>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20.25">
+      <c r="A15" s="30"/>
       <c r="B15" s="8" t="s">
         <v>25</v>
       </c>
@@ -1074,11 +1203,15 @@
       <c r="F15" s="8">
         <v>29</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A16" s="40"/>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20.25">
+      <c r="A16" s="30"/>
       <c r="B16" s="8" t="s">
         <v>26</v>
       </c>
@@ -1094,11 +1227,15 @@
       <c r="F16" s="8">
         <v>39</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A17" s="41"/>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="20.25">
+      <c r="A17" s="31"/>
       <c r="B17" s="8" t="s">
         <v>27</v>
       </c>
@@ -1114,11 +1251,20 @@
       <c r="F17" s="8">
         <v>0</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="G17" s="7">
+        <v>50</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="A11:A17"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:H7"/>
@@ -1128,11 +1274,6 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
